--- a/stepper_motor/motor_calculations.xlsx
+++ b/stepper_motor/motor_calculations.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="40">
   <si>
     <t>Max motor speed</t>
   </si>
@@ -118,12 +118,33 @@
   </si>
   <si>
     <t>=delay</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">acceleration in additional steps per second </t>
+  </si>
+  <si>
+    <t>acceleration time from 0 to max</t>
+  </si>
+  <si>
+    <t>s^-2</t>
+  </si>
+  <si>
+    <t>interrupt frequency</t>
+  </si>
+  <si>
+    <t>kHz</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="168" formatCode="0.0"/>
+  </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -226,12 +247,14 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2"/>
     <xf numFmtId="2" fontId="2" fillId="3" borderId="2" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="2" fillId="3" borderId="2" xfId="2" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="2" fillId="3" borderId="2" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -547,20 +570,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="G5:J38"/>
+  <dimension ref="G5:J43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J45" sqref="J45"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="7" width="30.140625" customWidth="1"/>
-    <col min="10" max="10" width="16.28515625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="34.140625" customWidth="1"/>
+    <col min="10" max="10" width="16.28515625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="5" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="8" t="s">
         <v>25</v>
       </c>
     </row>
@@ -614,7 +637,7 @@
       <c r="H11" t="s">
         <v>2</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I11" s="5">
         <f>I8*I10</f>
         <v>8333.3333333333321</v>
       </c>
@@ -637,7 +660,7 @@
       <c r="H13" t="s">
         <v>7</v>
       </c>
-      <c r="I13" s="4">
+      <c r="I13" s="5">
         <f>I11*I12</f>
         <v>16666.666666666664</v>
       </c>
@@ -652,7 +675,7 @@
       <c r="I14" s="2">
         <v>2</v>
       </c>
-      <c r="J14" s="5" t="s">
+      <c r="J14" s="7" t="s">
         <v>12</v>
       </c>
     </row>
@@ -663,26 +686,26 @@
       <c r="H15" t="s">
         <v>7</v>
       </c>
-      <c r="I15" s="4">
+      <c r="I15" s="5">
         <f>I13*I14</f>
         <v>33333.333333333328</v>
       </c>
     </row>
-    <row r="16" spans="7:10" s="7" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G16" s="7" t="s">
+    <row r="16" spans="7:10" s="9" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G16" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="H16" s="7" t="s">
+      <c r="H16" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="I16" s="8">
+      <c r="I16" s="10">
         <f>1/I15*10^6</f>
         <v>30.000000000000004</v>
       </c>
-      <c r="J16" s="9"/>
+      <c r="J16" s="11"/>
     </row>
     <row r="19" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G19" s="6" t="s">
+      <c r="G19" s="8" t="s">
         <v>24</v>
       </c>
     </row>
@@ -719,7 +742,7 @@
       <c r="I22" s="1">
         <v>1</v>
       </c>
-      <c r="J22" s="5" t="s">
+      <c r="J22" s="7" t="s">
         <v>21</v>
       </c>
     </row>
@@ -733,130 +756,166 @@
       <c r="I23" s="1">
         <v>50</v>
       </c>
-      <c r="J23" s="5" t="s">
+      <c r="J23" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="7:10" s="7" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G24" s="7" t="s">
+    <row r="24" spans="7:10" s="9" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G24" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="H24" s="7" t="s">
+      <c r="H24" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="I24" s="8">
+      <c r="I24" s="10">
         <f>I21*I22*I23</f>
         <v>3.125</v>
       </c>
-      <c r="J24" s="9"/>
-    </row>
-    <row r="27" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G27" s="6" t="s">
+      <c r="J24" s="11"/>
+    </row>
+    <row r="25" spans="7:10" s="9" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G25" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="H25" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="I25" s="10">
+        <f>1/I24*10^6/1000</f>
+        <v>320</v>
+      </c>
+      <c r="J25" s="11"/>
+    </row>
+    <row r="28" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G28" s="8" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G28" t="s">
-        <v>27</v>
-      </c>
-      <c r="H28" t="s">
-        <v>1</v>
-      </c>
-      <c r="I28" s="1">
-        <v>100</v>
       </c>
     </row>
     <row r="29" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G29" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H29" t="s">
-        <v>9</v>
-      </c>
-      <c r="I29" s="4">
-        <f>(I28/60)*I10*I12*I14</f>
-        <v>1333.3333333333335</v>
+        <v>1</v>
+      </c>
+      <c r="I29" s="1">
+        <v>100</v>
       </c>
     </row>
     <row r="30" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G30" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H30" t="s">
-        <v>15</v>
-      </c>
-      <c r="I30" s="2">
-        <f>1/I29*10^6</f>
-        <v>749.99999999999989</v>
-      </c>
-      <c r="J30" s="10" t="s">
-        <v>33</v>
+        <v>9</v>
+      </c>
+      <c r="I30" s="5">
+        <f>(I29/60)*I10*I12*I14</f>
+        <v>1333.3333333333335</v>
       </c>
     </row>
     <row r="31" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G31" t="s">
+        <v>29</v>
+      </c>
+      <c r="H31" t="s">
+        <v>15</v>
+      </c>
+      <c r="I31" s="2">
+        <f>1/I30*10^6</f>
+        <v>749.99999999999989</v>
+      </c>
+      <c r="J31" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G32" t="s">
         <v>31</v>
       </c>
-      <c r="H31" t="s">
+      <c r="H32" t="s">
         <v>9</v>
       </c>
-      <c r="I31" s="2">
-        <f>I30/I24</f>
+      <c r="I32" s="2">
+        <f>I31/I24</f>
         <v>239.99999999999997</v>
       </c>
     </row>
-    <row r="35" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G35" t="s">
+    <row r="36" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G36" t="s">
         <v>28</v>
       </c>
-      <c r="H35" t="s">
+      <c r="H36" t="s">
         <v>1</v>
       </c>
-      <c r="I35" s="1">
+      <c r="I36" s="1">
         <f>I7</f>
         <v>2500</v>
       </c>
     </row>
-    <row r="36" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G36" t="s">
-        <v>30</v>
-      </c>
-      <c r="H36" t="s">
-        <v>9</v>
-      </c>
-      <c r="I36" s="4">
-        <f>(I35/60)*I10*I12*I14</f>
-        <v>33333.333333333328</v>
-      </c>
-    </row>
     <row r="37" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G37" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H37" t="s">
-        <v>15</v>
-      </c>
-      <c r="I37" s="2">
-        <f>1/I36*10^6</f>
-        <v>30.000000000000004</v>
-      </c>
-      <c r="J37" s="10" t="s">
-        <v>33</v>
+        <v>9</v>
+      </c>
+      <c r="I37" s="5">
+        <f>(I36/60)*I10*I12*I14</f>
+        <v>33333.333333333328</v>
       </c>
     </row>
     <row r="38" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G38" t="s">
+        <v>29</v>
+      </c>
+      <c r="H38" t="s">
+        <v>15</v>
+      </c>
+      <c r="I38" s="2">
+        <f>1/I37*10^6</f>
+        <v>30.000000000000004</v>
+      </c>
+      <c r="J38" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="39" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G39" t="s">
         <v>31</v>
       </c>
-      <c r="H38" t="s">
+      <c r="H39" t="s">
         <v>9</v>
       </c>
-      <c r="I38" s="2">
-        <f>I37/I24</f>
+      <c r="I39" s="4">
+        <f>I38/I24</f>
         <v>9.6000000000000014</v>
       </c>
-      <c r="J38" s="5" t="s">
+      <c r="J39" s="7" t="s">
         <v>32</v>
+      </c>
+    </row>
+    <row r="42" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G42" t="s">
+        <v>36</v>
+      </c>
+      <c r="H42" t="s">
+        <v>34</v>
+      </c>
+      <c r="I42" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G43" t="s">
+        <v>35</v>
+      </c>
+      <c r="H43" t="s">
+        <v>37</v>
+      </c>
+      <c r="I43" s="6">
+        <f>I15/I42</f>
+        <v>33333.333333333328</v>
       </c>
     </row>
   </sheetData>

--- a/stepper_motor/motor_calculations.xlsx
+++ b/stepper_motor/motor_calculations.xlsx
@@ -143,7 +143,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -252,7 +252,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2"/>
     <xf numFmtId="2" fontId="2" fillId="3" borderId="2" xfId="2" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="2" fillId="3" borderId="2" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="2" xfId="2" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="2" fillId="3" borderId="2" xfId="2" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -572,8 +572,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="G5:J43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/stepper_motor/motor_calculations.xlsx
+++ b/stepper_motor/motor_calculations.xlsx
@@ -1,17 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\realslimshady\Documents\GitHub\rig-pty-semi-automatic\stepper_motor\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA235A3E-046A-45DE-812F-ECFFD788D5AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="38115" windowHeight="17685"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="19440" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
     <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
     <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -141,7 +157,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -269,9 +285,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Ausgabe" xfId="2" builtinId="21"/>
-    <cellStyle name="Eingabe" xfId="1" builtinId="20"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Input" xfId="1" builtinId="20"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Output" xfId="2" builtinId="21"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -279,14 +295,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Larissa">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -324,9 +343,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Larissa">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -359,9 +378,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -394,9 +430,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Larissa">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -569,14 +622,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="G5:J43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="7" max="7" width="34.140625" customWidth="1"/>
     <col min="10" max="10" width="16.28515625" style="7" customWidth="1"/>
@@ -821,7 +874,7 @@
       <c r="H31" t="s">
         <v>15</v>
       </c>
-      <c r="I31" s="2">
+      <c r="I31" s="4">
         <f>1/I30*10^6</f>
         <v>749.99999999999989</v>
       </c>
@@ -849,7 +902,6 @@
         <v>1</v>
       </c>
       <c r="I36" s="1">
-        <f>I7</f>
         <v>2500</v>
       </c>
     </row>
@@ -872,7 +924,7 @@
       <c r="H38" t="s">
         <v>15</v>
       </c>
-      <c r="I38" s="2">
+      <c r="I38" s="4">
         <f>1/I37*10^6</f>
         <v>30.000000000000004</v>
       </c>
@@ -925,24 +977,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/stepper_motor/motor_calculations.xlsx
+++ b/stepper_motor/motor_calculations.xlsx
@@ -1,23 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\realslimshady\Documents\GitHub\rig-pty-semi-automatic\stepper_motor\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA235A3E-046A-45DE-812F-ECFFD788D5AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="19440" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="19440" windowHeight="15600"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
     <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
     <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -157,7 +151,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -285,9 +279,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Input" xfId="1" builtinId="20"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Output" xfId="2" builtinId="21"/>
+    <cellStyle name="Ausgabe" xfId="2" builtinId="21"/>
+    <cellStyle name="Eingabe" xfId="1" builtinId="20"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -303,9 +297,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Larissa">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -343,9 +337,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Larissa">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -378,26 +372,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -430,26 +407,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Larissa">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -622,14 +582,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="G5:J43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="7" max="7" width="34.140625" customWidth="1"/>
     <col min="10" max="10" width="16.28515625" style="7" customWidth="1"/>
@@ -648,7 +608,7 @@
         <v>1</v>
       </c>
       <c r="I7" s="1">
-        <v>2500</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="8" spans="7:10" x14ac:dyDescent="0.25">
@@ -657,7 +617,7 @@
       </c>
       <c r="I8" s="3">
         <f>I7/60</f>
-        <v>41.666666666666664</v>
+        <v>28.333333333333332</v>
       </c>
     </row>
     <row r="9" spans="7:10" x14ac:dyDescent="0.25">
@@ -692,7 +652,7 @@
       </c>
       <c r="I11" s="5">
         <f>I8*I10</f>
-        <v>8333.3333333333321</v>
+        <v>5666.6666666666661</v>
       </c>
     </row>
     <row r="12" spans="7:10" x14ac:dyDescent="0.25">
@@ -715,7 +675,7 @@
       </c>
       <c r="I13" s="5">
         <f>I11*I12</f>
-        <v>16666.666666666664</v>
+        <v>11333.333333333332</v>
       </c>
     </row>
     <row r="14" spans="7:10" x14ac:dyDescent="0.25">
@@ -741,7 +701,7 @@
       </c>
       <c r="I15" s="5">
         <f>I13*I14</f>
-        <v>33333.333333333328</v>
+        <v>22666.666666666664</v>
       </c>
     </row>
     <row r="16" spans="7:10" s="9" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -753,7 +713,7 @@
       </c>
       <c r="I16" s="10">
         <f>1/I15*10^6</f>
-        <v>30.000000000000004</v>
+        <v>44.117647058823529</v>
       </c>
       <c r="J16" s="11"/>
     </row>
@@ -967,7 +927,7 @@
       </c>
       <c r="I43" s="6">
         <f>I15/I42</f>
-        <v>33333.333333333328</v>
+        <v>22666.666666666664</v>
       </c>
     </row>
   </sheetData>
@@ -977,24 +937,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
